--- a/exercicios/1.4.exercicios-optus/modelagem-optus.xlsx
+++ b/exercicios/1.4.exercicios-optus/modelagem-optus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E29965-36A9-4434-AF09-33BA3021A1F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EB585B-AF2C-47D1-8A07-3ABC94472156}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="optus" sheetId="1" r:id="rId1"/>
+    <sheet name="Optus" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Artistas</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Senha</t>
   </si>
   <si>
-    <t>Permissao</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -122,6 +119,15 @@
   </si>
   <si>
     <t>AlbunsEstilos</t>
+  </si>
+  <si>
+    <t>TiposUsuario</t>
+  </si>
+  <si>
+    <t>IdTipoUsuario</t>
+  </si>
+  <si>
+    <t>Titulo</t>
   </si>
 </sst>
 </file>
@@ -145,7 +151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +215,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -320,37 +338,43 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -636,41 +660,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="10"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -687,14 +711,14 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -711,14 +735,14 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="17">
+      <c r="I3" s="7">
         <v>1</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -735,14 +759,14 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="17">
+      <c r="I4" s="7">
         <v>1</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -759,14 +783,14 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="17">
+      <c r="I5" s="7">
         <v>2</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -778,7 +802,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -790,7 +814,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -802,21 +826,21 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -842,7 +866,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -868,7 +892,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -894,7 +918,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -906,7 +930,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -918,21 +942,23 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="18"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
@@ -946,59 +972,71 @@
         <v>25</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="D17" s="5">
         <v>123456</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>29</v>
+      <c r="E17" s="5">
+        <v>1</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D18" s="5">
         <v>123456</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>32</v>
+      <c r="E18" s="5">
+        <v>2</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="19">
+        <v>2</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1010,7 +1048,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1022,7 +1060,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1034,7 +1072,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1046,7 +1084,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1058,7 +1096,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1070,7 +1108,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1082,7 +1120,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1094,7 +1132,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1106,7 +1144,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1118,7 +1156,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1130,7 +1168,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1142,7 +1180,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1155,12 +1193,13 @@
       <c r="J31" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G15:H15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
